--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H2">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I2">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J2">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N2">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O2">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P2">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q2">
-        <v>0.32733445629</v>
+        <v>1.536228664894</v>
       </c>
       <c r="R2">
-        <v>1.30933782516</v>
+        <v>6.144914659576001</v>
       </c>
       <c r="S2">
-        <v>0.003767341558814146</v>
+        <v>0.01900272852307675</v>
       </c>
       <c r="T2">
-        <v>0.002205023571426635</v>
+        <v>0.01105911118410735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H3">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I3">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J3">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P3">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q3">
-        <v>2.91698172064</v>
+        <v>5.073560092362666</v>
       </c>
       <c r="R3">
-        <v>17.50189032384</v>
+        <v>30.441360554176</v>
       </c>
       <c r="S3">
-        <v>0.03357198196309768</v>
+        <v>0.0627585510437903</v>
       </c>
       <c r="T3">
-        <v>0.02947450227665654</v>
+        <v>0.05478585295558216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H4">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I4">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J4">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N4">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O4">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P4">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q4">
-        <v>0.03612072186</v>
+        <v>0.050702685946</v>
       </c>
       <c r="R4">
-        <v>0.21672433116</v>
+        <v>0.304216115676</v>
       </c>
       <c r="S4">
-        <v>0.0004157188281975</v>
+        <v>0.0006271783611648318</v>
       </c>
       <c r="T4">
-        <v>0.0003649801063763473</v>
+        <v>0.0005475031035647104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H5">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I5">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J5">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N5">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O5">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P5">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q5">
-        <v>2.3201996472525</v>
+        <v>2.77596391452875</v>
       </c>
       <c r="R5">
-        <v>9.280798589009999</v>
+        <v>11.103855658115</v>
       </c>
       <c r="S5">
-        <v>0.02670352719634331</v>
+        <v>0.03433791457164814</v>
       </c>
       <c r="T5">
-        <v>0.01562956424017566</v>
+        <v>0.01998380467400118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H6">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I6">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J6">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N6">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O6">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P6">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q6">
-        <v>0.40777601532</v>
+        <v>0.1908420395053333</v>
       </c>
       <c r="R6">
-        <v>2.44665609192</v>
+        <v>1.145052237032</v>
       </c>
       <c r="S6">
-        <v>0.004693155577369632</v>
+        <v>0.002360663845418069</v>
       </c>
       <c r="T6">
-        <v>0.004120353242830142</v>
+        <v>0.002060770686410394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H7">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I7">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J7">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N7">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O7">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P7">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q7">
-        <v>0.05833294738499999</v>
+        <v>0.1095333758878333</v>
       </c>
       <c r="R7">
-        <v>0.3499976843099999</v>
+        <v>0.657200255327</v>
       </c>
       <c r="S7">
-        <v>0.0006713626772518389</v>
+        <v>0.001354897909261598</v>
       </c>
       <c r="T7">
-        <v>0.000589422476780567</v>
+        <v>0.001182774879152923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.228077</v>
       </c>
       <c r="I8">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J8">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N8">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O8">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P8">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q8">
-        <v>1.044935514426</v>
+        <v>2.819515785324</v>
       </c>
       <c r="R8">
-        <v>6.269613086555999</v>
+        <v>16.917094711944</v>
       </c>
       <c r="S8">
-        <v>0.01202632021815105</v>
+        <v>0.0348766393046952</v>
       </c>
       <c r="T8">
-        <v>0.01055850092613915</v>
+        <v>0.03044599342643633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.228077</v>
       </c>
       <c r="I9">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J9">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P9">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q9">
-        <v>9.311753578815999</v>
+        <v>9.311753578816001</v>
       </c>
       <c r="R9">
-        <v>83.80578220934399</v>
+        <v>83.805782209344</v>
       </c>
       <c r="S9">
-        <v>0.1071703744253262</v>
+        <v>0.1151838455925689</v>
       </c>
       <c r="T9">
-        <v>0.1411352529824523</v>
+        <v>0.1508267428710184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.228077</v>
       </c>
       <c r="I10">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J10">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N10">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O10">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P10">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q10">
-        <v>0.115306605684</v>
+        <v>0.09305712531600001</v>
       </c>
       <c r="R10">
-        <v>1.037759451156</v>
+        <v>0.837514127844</v>
       </c>
       <c r="S10">
-        <v>0.001327081091684021</v>
+        <v>0.001151091194903524</v>
       </c>
       <c r="T10">
-        <v>0.001747665123009886</v>
+        <v>0.001507288932589762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.228077</v>
       </c>
       <c r="I11">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J11">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N11">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O11">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P11">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q11">
-        <v>7.4066721830985</v>
+        <v>5.094862669447501</v>
       </c>
       <c r="R11">
-        <v>44.44003309859099</v>
+        <v>30.569176016685</v>
       </c>
       <c r="S11">
-        <v>0.08524450570879949</v>
+        <v>0.06302205809741826</v>
       </c>
       <c r="T11">
-        <v>0.07484036481218936</v>
+        <v>0.05501588469552381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.228077</v>
       </c>
       <c r="I12">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J12">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N12">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O12">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P12">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q12">
-        <v>1.301725596408</v>
+        <v>0.350261751512</v>
       </c>
       <c r="R12">
-        <v>11.715530367672</v>
+        <v>3.152355763608</v>
       </c>
       <c r="S12">
-        <v>0.01498175594803646</v>
+        <v>0.004332642091702645</v>
       </c>
       <c r="T12">
-        <v>0.01972983604084342</v>
+        <v>0.005673350211182263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.228077</v>
       </c>
       <c r="I13">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J13">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N13">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O13">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P13">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q13">
-        <v>0.186213724869</v>
+        <v>0.201031974857</v>
       </c>
       <c r="R13">
-        <v>1.675923523821</v>
+        <v>1.809287773713</v>
       </c>
       <c r="S13">
-        <v>0.002143161806036851</v>
+        <v>0.002486710559413467</v>
       </c>
       <c r="T13">
-        <v>0.002822381514474396</v>
+        <v>0.003256207085375332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H14">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I14">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J14">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N14">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O14">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P14">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q14">
-        <v>0.5576185283</v>
+        <v>1.916351556037334</v>
       </c>
       <c r="R14">
-        <v>3.3457111698</v>
+        <v>11.498109336224</v>
       </c>
       <c r="S14">
-        <v>0.006417715627737749</v>
+        <v>0.02370474474688041</v>
       </c>
       <c r="T14">
-        <v>0.005634429748252994</v>
+        <v>0.02069334996510723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H15">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I15">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J15">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P15">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q15">
-        <v>4.969116519466667</v>
+        <v>6.328956749624889</v>
       </c>
       <c r="R15">
-        <v>44.7220486752</v>
+        <v>56.960610746624</v>
       </c>
       <c r="S15">
-        <v>0.05719031044440823</v>
+        <v>0.07828746442230619</v>
       </c>
       <c r="T15">
-        <v>0.07531530029635772</v>
+        <v>0.102513014786936</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H16">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I16">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J16">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N16">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O16">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P16">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q16">
-        <v>0.0615321222</v>
+        <v>0.06324850806933334</v>
       </c>
       <c r="R16">
-        <v>0.5537890998</v>
+        <v>0.569236572624</v>
       </c>
       <c r="S16">
-        <v>0.0007081824620403469</v>
+        <v>0.0007823667503392805</v>
       </c>
       <c r="T16">
-        <v>0.000932622578522787</v>
+        <v>0.001024465089502705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H17">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I17">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J17">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N17">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O17">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P17">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q17">
-        <v>3.952490450675</v>
+        <v>3.462845661376667</v>
       </c>
       <c r="R17">
-        <v>23.71494270405</v>
+        <v>20.77707396826</v>
       </c>
       <c r="S17">
-        <v>0.04548980789988066</v>
+        <v>0.04283445396131532</v>
       </c>
       <c r="T17">
-        <v>0.03993775071080095</v>
+        <v>0.03739286610552608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H18">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I18">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J18">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N18">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O18">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P18">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q18">
-        <v>0.6946517764</v>
+        <v>0.2380638037297778</v>
       </c>
       <c r="R18">
-        <v>6.2518659876</v>
+        <v>2.142574233568</v>
       </c>
       <c r="S18">
-        <v>0.007994851919338686</v>
+        <v>0.002944784156699836</v>
       </c>
       <c r="T18">
-        <v>0.01052861347404661</v>
+        <v>0.003856028599568387</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H19">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I19">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J19">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N19">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O19">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P19">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q19">
-        <v>0.09937093895</v>
+        <v>0.1366362053497778</v>
       </c>
       <c r="R19">
-        <v>0.8943384505500001</v>
+        <v>1.229725848148</v>
       </c>
       <c r="S19">
-        <v>0.001143675103097159</v>
+        <v>0.001690152498791155</v>
       </c>
       <c r="T19">
-        <v>0.00150613334954632</v>
+        <v>0.002213159276255566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H20">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I20">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J20">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N20">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O20">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P20">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q20">
-        <v>1.239295373307</v>
+        <v>2.445331184352</v>
       </c>
       <c r="R20">
-        <v>4.957181493228</v>
+        <v>9.781324737408001</v>
       </c>
       <c r="S20">
-        <v>0.01426323710745933</v>
+        <v>0.03024807810656306</v>
       </c>
       <c r="T20">
-        <v>0.008348267215966135</v>
+        <v>0.01760362247346794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H21">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I21">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J21">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P21">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q21">
-        <v>11.043756258912</v>
+        <v>8.075968762368001</v>
       </c>
       <c r="R21">
-        <v>66.262537553472</v>
+        <v>48.455812574208</v>
       </c>
       <c r="S21">
-        <v>0.1271042541355707</v>
+        <v>0.09989752532232324</v>
       </c>
       <c r="T21">
-        <v>0.1115911068941232</v>
+        <v>0.08720677966444024</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H22">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I22">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J22">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N22">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O22">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P22">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q22">
-        <v>0.136753838838</v>
+        <v>0.080707294368</v>
       </c>
       <c r="R22">
-        <v>0.820523033028</v>
+        <v>0.484243766208</v>
       </c>
       <c r="S22">
-        <v>0.001573920528321444</v>
+        <v>0.0009983271629767222</v>
       </c>
       <c r="T22">
-        <v>0.001381822623587709</v>
+        <v>0.0008715020382520126</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H23">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I23">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J23">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N23">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O23">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P23">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q23">
-        <v>8.78432634492075</v>
+        <v>4.41871140798</v>
       </c>
       <c r="R23">
-        <v>35.137305379683</v>
+        <v>17.67484563192</v>
       </c>
       <c r="S23">
-        <v>0.1011001349521447</v>
+        <v>0.05465825187779576</v>
       </c>
       <c r="T23">
-        <v>0.05917387026465009</v>
+        <v>0.03180973110842595</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H24">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I24">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J24">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N24">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O24">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P24">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q24">
-        <v>1.543848865956</v>
+        <v>0.303777686976</v>
       </c>
       <c r="R24">
-        <v>9.263093195735999</v>
+        <v>1.822666121856</v>
       </c>
       <c r="S24">
-        <v>0.01776838912458179</v>
+        <v>0.003757646923852592</v>
       </c>
       <c r="T24">
-        <v>0.01559974702359462</v>
+        <v>0.003280284334250151</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H25">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I25">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J25">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N25">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O25">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P25">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q25">
-        <v>0.2208498079455</v>
+        <v>0.174352546536</v>
       </c>
       <c r="R25">
-        <v>1.325098847673</v>
+        <v>1.046115279216</v>
       </c>
       <c r="S25">
-        <v>0.002541793702866663</v>
+        <v>0.002156693326223881</v>
       </c>
       <c r="T25">
-        <v>0.002231566321115169</v>
+        <v>0.001882712100194002</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H26">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I26">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J26">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N26">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O26">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P26">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q26">
-        <v>0.5177569080759999</v>
+        <v>2.929013126573333</v>
       </c>
       <c r="R26">
-        <v>3.106541448455999</v>
+        <v>17.57407875944</v>
       </c>
       <c r="S26">
-        <v>0.005958942236834783</v>
+        <v>0.03623109147533175</v>
       </c>
       <c r="T26">
-        <v>0.005231649913285181</v>
+        <v>0.03162837919254629</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H27">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I27">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J27">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P27">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q27">
-        <v>4.613896910549332</v>
+        <v>9.673380303715556</v>
       </c>
       <c r="R27">
-        <v>41.52507219494399</v>
+        <v>87.06042273344001</v>
       </c>
       <c r="S27">
-        <v>0.05310203446409291</v>
+        <v>0.1196570692974721</v>
       </c>
       <c r="T27">
-        <v>0.06993135097418823</v>
+        <v>0.1566841767678729</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H28">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I28">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J28">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N28">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O28">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P28">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q28">
-        <v>0.05713346978399998</v>
+        <v>0.09667104649333333</v>
       </c>
       <c r="R28">
-        <v>0.5142012280559999</v>
+        <v>0.8700394184400001</v>
       </c>
       <c r="S28">
-        <v>0.0006575577088830016</v>
+        <v>0.001195794411687597</v>
       </c>
       <c r="T28">
-        <v>0.0008659536190986081</v>
+        <v>0.00156582527115974</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H29">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I29">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J29">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N29">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O29">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P29">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q29">
-        <v>3.669944829811</v>
+        <v>5.292724273641667</v>
       </c>
       <c r="R29">
-        <v>22.019668978866</v>
+        <v>31.75634564185</v>
       </c>
       <c r="S29">
-        <v>0.0422379477938402</v>
+        <v>0.06546955203862891</v>
       </c>
       <c r="T29">
-        <v>0.03708278199896817</v>
+        <v>0.05715245478745095</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H30">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I30">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J30">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N30">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O30">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P30">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q30">
-        <v>0.6449942706079999</v>
+        <v>0.3638643462311111</v>
       </c>
       <c r="R30">
-        <v>5.804948435471998</v>
+        <v>3.27477911608</v>
       </c>
       <c r="S30">
-        <v>0.007423336206029493</v>
+        <v>0.004500902468926202</v>
       </c>
       <c r="T30">
-        <v>0.009775970635819498</v>
+        <v>0.005893677675683199</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H31">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I31">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J31">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N31">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O31">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P31">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q31">
-        <v>0.09226736109399998</v>
+        <v>0.2088391546811111</v>
       </c>
       <c r="R31">
-        <v>0.8304062498459999</v>
+        <v>1.87955239213</v>
       </c>
       <c r="S31">
-        <v>0.00106191895564939</v>
+        <v>0.002583283239066376</v>
       </c>
       <c r="T31">
-        <v>0.001398466705524734</v>
+        <v>0.003382663557178652</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H32">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I32">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J32">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N32">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O32">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P32">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q32">
-        <v>1.001113939016667</v>
+        <v>1.108491546082667</v>
       </c>
       <c r="R32">
-        <v>6.0066836341</v>
+        <v>6.650949276496</v>
       </c>
       <c r="S32">
-        <v>0.01152197110659272</v>
+        <v>0.01371173732250854</v>
       </c>
       <c r="T32">
-        <v>0.01011570791340622</v>
+        <v>0.01196983060033299</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H33">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I33">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J33">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P33">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q33">
-        <v>8.921245546488889</v>
+        <v>3.660912336455111</v>
       </c>
       <c r="R33">
-        <v>80.2912099184</v>
+        <v>32.948211028096</v>
       </c>
       <c r="S33">
-        <v>0.1026759586650334</v>
+        <v>0.04528448457329054</v>
       </c>
       <c r="T33">
-        <v>0.1352164483805403</v>
+        <v>0.05929747592333325</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H34">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I34">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J34">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N34">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O34">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P34">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q34">
-        <v>0.1104709799</v>
+        <v>0.03658537301066667</v>
       </c>
       <c r="R34">
-        <v>0.9942388190999999</v>
+        <v>0.329268357096</v>
       </c>
       <c r="S34">
-        <v>0.001271427146219762</v>
+        <v>0.0004525510603495788</v>
       </c>
       <c r="T34">
-        <v>0.001674373098840998</v>
+        <v>0.0005925900638601029</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H35">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I35">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J35">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N35">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O35">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P35">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q35">
-        <v>7.096057758454167</v>
+        <v>2.003043298048333</v>
       </c>
       <c r="R35">
-        <v>42.576346550725</v>
+        <v>12.01825978829</v>
       </c>
       <c r="S35">
-        <v>0.08166959751247743</v>
+        <v>0.02477709789083199</v>
       </c>
       <c r="T35">
-        <v>0.07170177621509213</v>
+        <v>0.02162947389856125</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H36">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I36">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J36">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N36">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O36">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P36">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q36">
-        <v>1.247134987133333</v>
+        <v>0.1377052728302222</v>
       </c>
       <c r="R36">
-        <v>11.2242148842</v>
+        <v>1.239347455472</v>
       </c>
       <c r="S36">
-        <v>0.01435346440374748</v>
+        <v>0.001703376571201714</v>
       </c>
       <c r="T36">
-        <v>0.01890242374033171</v>
+        <v>0.002230475452485958</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H37">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I37">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J37">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N37">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O37">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P37">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q37">
-        <v>0.1784044594416667</v>
+        <v>0.07903564356022222</v>
       </c>
       <c r="R37">
-        <v>1.605640134975</v>
+        <v>0.7113207920419999</v>
       </c>
       <c r="S37">
-        <v>0.002053283794043702</v>
+        <v>0.0009776492995755891</v>
       </c>
       <c r="T37">
-        <v>0.002704018990985674</v>
+        <v>0.001280176562664024</v>
       </c>
     </row>
   </sheetData>
